--- a/Data/10.2. Figure 1.xlsx
+++ b/Data/10.2. Figure 1.xlsx
@@ -1594,7 +1594,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>We exclude Ireland (90 pct. in havens) and Hungary (77 pct.) as outliers,  Korea (150 pct.) due to errors in the total,  Latvia (-64) and Slovenia (- 38) as negatives and Canada (0 pct.) as missing allocation. </a:t>
+            <a:t>This figure excludes Ireland (90 pct. in havens) and Hungary (77 pct.) as outliers,  Korea (150 pct.) due to errors in the total,  Latvia (-64) and Slovenia (- 38) as negatives and Canada (0 pct.) as missing allocation. They are featured in the analysis.</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-GB" sz="800" i="0" baseline="0">
